--- a/Backend/IT_Klausimynas_UAB_Pristatymas.xlsx
+++ b/Backend/IT_Klausimynas_UAB_Pristatymas.xlsx
@@ -46,10 +46,82 @@
     <t>Ar naudojama praėjimo kontrolės sistema?</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rekomenduojama naudoti kortelių sistemą patekimui į patalpas, kuri fiksuotų konkrečiai kas kada ir kur naudojosi fizinėmis patalpomis. Tai veiktų ir preventyviai, ir palengvintu tyrimą įvykus incidentui.</t>
+  </si>
+  <si>
+    <t>Nėra atsekamumo, kada kas pateko į patalpas ir priėjo prie  fizinės infrastruktūros</t>
+  </si>
+  <si>
+    <t>Vidutinė</t>
+  </si>
+  <si>
+    <t>Ar yra įrašų žurnalas, kas kada ir kur praėjo?</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Baklauro pristatymas</t>
+  </si>
+  <si>
+    <t>Rekomenduojama naudoti kortelių sistemą ne tik pastato, bet ir patekimui į patalpas, kuri fiksuotų konkrečiai kas kada ir kur naudojosi fizinėmis patalpomis. Tai veiktų ir preventyviai, ir palengvintu tyrimą įvykus incidentui.</t>
+  </si>
+  <si>
+    <t>Kompiuterinio tinklo inventorizacija - Bendri klausimai</t>
+  </si>
+  <si>
+    <t>Kokie tinklo įrangos gamintojai yra naudojami kompiuteriniame tinkle?</t>
+  </si>
+  <si>
+    <t>Parasyti omentaras</t>
+  </si>
+  <si>
+    <t>Jeigu yra naudojama  skirtingų gamintojų įranga, rekomendacija aprašyti jos sujungimo schemas ir dokumentuoti konfigūraciją. Pasitikrinti ar sutartyje  su  trečiąja šalimi tinkamai aprašytos atsakomybės - esant poreikiui jas papildyti</t>
+  </si>
+  <si>
+    <t>Nežinant tinklo topologijos, sprendimai su tinklo infrastruktūra gali būti nekorektiški ir turėti saugumo spragų.</t>
+  </si>
+  <si>
+    <t>Kaip užtikrinate, kad tinklo įrenginiai visada yra atnaujinti ir su naujaisiais pataisymais?</t>
+  </si>
+  <si>
+    <t>vdsvs</t>
+  </si>
+  <si>
+    <t>Apsirašyti proocesą/ taisyklę, kurioje būtų užtikrinami pastovūs tinklo įrenginių atnujinimų įdiegimas</t>
+  </si>
+  <si>
+    <t>Galimybė įsilaužti į vidinį tinklą, sugadinti (Pvz. užšifruoti kriptovirusu) arba pavogti svarbią informaciją</t>
+  </si>
+  <si>
+    <t>Ar naudojamas 802.1x protokolas?</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>vsdvs</t>
+  </si>
+  <si>
+    <t>Rekomendacijos nėra, rizika suvaldyta</t>
+  </si>
+  <si>
+    <t>Nenaudojant 802.1x protokolo yra galimybė jungtis neidentifikuotoms įrenginiams. Tai gali įtakoti duomenų praradimą, be jokio atsekamumo</t>
+  </si>
+  <si>
+    <t>Žema</t>
+  </si>
+  <si>
+    <t>Ar pakeisti gamykliniai prisijungimo vardai ir slaptažodžiai?</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>dcsd</t>
+    <t>sdvsd</t>
   </si>
   <si>
     <t>Netaikoma</t>
@@ -58,124 +130,52 @@
     <t>Informacija</t>
   </si>
   <si>
-    <t>Ar yra įrašų žurnalas, kas kada ir kur praėjo?</t>
+    <t>Kokiu būdu yra užtikrinamas slaptažodžių keitimas?</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pasirengti ir apsirašyti tinkamą slaptažodžių keitimo procedūrą ir jos laikytis</t>
+  </si>
+  <si>
+    <t>Periodiškai nekeičiant slaptažodžių, galimas jų praradimas ir nesankcionuota prieiga prie įrangos</t>
+  </si>
+  <si>
+    <t>Aukšta</t>
+  </si>
+  <si>
+    <t>Ar atliekamas vidinių sistemų skanavimas?</t>
+  </si>
+  <si>
+    <t>Įsidiegti sprendimą vidinio tinklo duomenų srautų stebėjimui ar bent atlikti auditą (ribotam laikui pastatyti įrangą) sprendimą vidinio tinklo duomenų srautų stebėjimui</t>
+  </si>
+  <si>
+    <t>Nėra užtikrinama, kad sistemos nėra pažeidžiami.</t>
+  </si>
+  <si>
+    <t>Kompiuterinio tinklo inventorizacija - WiFi tinklas</t>
+  </si>
+  <si>
+    <t>Ar naudojamas WiFi tinklas?</t>
+  </si>
+  <si>
+    <t>Galimybė klausytis (angl. sniff) duomenų srautų, keliaujančių komunikacijos kanalu, bei galimybė perimti, modifikuoti keliaujančią informaciją (angl. maninthe-middle). Pvz., vieši, belaidžiai, nemokamą interneto prieigą teikiantys taškai (WiFi) bei interneto svetainės, neužtikrinančios SSL/TLS (HTTPS) kriptografinių protokolų. Taip pat vidiniai įstaigų, organizacijų kompiuterių tinklai, nenaudojantys MAC adresų filtravimo, susiejimo su fiziniais Ethernet prievadais; nevykdomas kompiuterių tinklų duomenų srautų monitoringas, nevykdomas įsilaužimų aptikimas ir prevencija (pvz., IDS/IPS)</t>
+  </si>
+  <si>
+    <t>Kokie šifravimo algoritmai naudojami apsaugant bevielę komunikaciją?</t>
+  </si>
+  <si>
+    <t>Belaidis ryšys prie IT sistemų turi būti leidžiamas tik tam tikriems vartotojams ir procesams. Belaidžio ryšio potinklis 24 turi būti atskirtas nuo kitų potinklių. Belaidė prieiga turi būti apsaugota patikimais šifravimo mechanizmais.</t>
+  </si>
+  <si>
+    <t>Ar guest WLAN atskiras?</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>csaasc</t>
-  </si>
-  <si>
-    <t>Rekomenduojama naudoti kortelių sistemą patekimui į patalpas, kuri fiksuotų konkrečiai kas kada ir kur naudojosi fizinėmis patalpomis. Tai veiktų ir preventyviai, ir palengvintu tyrimą įvykus incidentui.</t>
-  </si>
-  <si>
-    <t>Nėra atsekamumo, kada kas pateko į patalpas ir priėjo prie  fizinės infrastruktūros</t>
-  </si>
-  <si>
-    <t>Aukšta</t>
-  </si>
-  <si>
-    <t>Kompiuterinio tinklo inventorizacija - Bendri klausimai</t>
-  </si>
-  <si>
-    <t>Kokie tinklo įrangos gamintojai yra naudojami kompiuteriniame tinkle?</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>vdsvdsvs</t>
-  </si>
-  <si>
-    <t>Jeigu yra naudojama  skirtingų gamintojų įranga, rekomendacija aprašyti jos sujungimo schemas ir dokumentuoti konfigūraciją. Pasitikrinti ar sutartyje  su  trečiąja šalimi tinkamai aprašytos atsakomybės - esant poreikiui jas papildyti</t>
-  </si>
-  <si>
-    <t>Nežinant tinklo topologijos, sprendimai su tinklo infrastruktūra gali būti nekorektiški ir turėti saugumo spragų.</t>
-  </si>
-  <si>
-    <t>Vidutinė</t>
-  </si>
-  <si>
-    <t>Kaip užtikrinate, kad tinklo įrenginiai visada yra atnaujinti ir su naujaisiais pataisymais?</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>vdsvs</t>
-  </si>
-  <si>
-    <t>Apsirašyti proocesą/ taisyklę, kurioje būtų užtikrinami pastovūs tinklo įrenginių atnujinimų įdiegimas</t>
-  </si>
-  <si>
-    <t>Galimybė įsilaužti į vidinį tinklą, sugadinti (Pvz. užšifruoti kriptovirusu) arba pavogti svarbią informaciją</t>
-  </si>
-  <si>
-    <t>Ar naudojamas 802.1x protokolas?</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>vsdvs</t>
-  </si>
-  <si>
-    <t>Rekomendacijos nėra, rizika suvaldyta</t>
-  </si>
-  <si>
-    <t>Nenaudojant 802.1x protokolo yra galimybė jungtis neidentifikuotoms įrenginiams. Tai gali įtakoti duomenų praradimą, be jokio atsekamumo</t>
-  </si>
-  <si>
-    <t>Žema</t>
-  </si>
-  <si>
-    <t>Ar pakeisti gamykliniai prisijungimo vardai ir slaptažodžiai?</t>
-  </si>
-  <si>
-    <t>sdvsd</t>
-  </si>
-  <si>
-    <t>Kokiu būdu yra užtikrinamas slaptažodžių keitimas?</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pasirengti ir apsirašyti tinkamą slaptažodžių keitimo procedūrą ir jos laikytis</t>
-  </si>
-  <si>
-    <t>Periodiškai nekeičiant slaptažodžių, galimas jų praradimas ir nesankcionuota prieiga prie įrangos</t>
-  </si>
-  <si>
-    <t>Ar atliekamas vidinių sistemų skanavimas?</t>
-  </si>
-  <si>
-    <t>Įsidiegti sprendimą vidinio tinklo duomenų srautų stebėjimui ar bent atlikti auditą (ribotam laikui pastatyti įrangą) sprendimą vidinio tinklo duomenų srautų stebėjimui</t>
-  </si>
-  <si>
-    <t>Nėra užtikrinama, kad sistemos nėra pažeidžiami.</t>
-  </si>
-  <si>
-    <t>Kompiuterinio tinklo inventorizacija - WiFi tinklas</t>
-  </si>
-  <si>
-    <t>Ar naudojamas WiFi tinklas?</t>
-  </si>
-  <si>
-    <t>Galimybė klausytis (angl. sniff) duomenų srautų, keliaujančių komunikacijos kanalu, bei galimybė perimti, modifikuoti keliaujančią informaciją (angl. maninthe-middle). Pvz., vieši, belaidžiai, nemokamą interneto prieigą teikiantys taškai (WiFi) bei interneto svetainės, neužtikrinančios SSL/TLS (HTTPS) kriptografinių protokolų. Taip pat vidiniai įstaigų, organizacijų kompiuterių tinklai, nenaudojantys MAC adresų filtravimo, susiejimo su fiziniais Ethernet prievadais; nevykdomas kompiuterių tinklų duomenų srautų monitoringas, nevykdomas įsilaužimų aptikimas ir prevencija (pvz., IDS/IPS)</t>
-  </si>
-  <si>
-    <t>Kokie šifravimo algoritmai naudojami apsaugant bevielę komunikaciją?</t>
-  </si>
-  <si>
-    <t>Belaidis ryšys prie IT sistemų turi būti leidžiamas tik tam tikriems vartotojams ir procesams. Belaidžio ryšio potinklis 24 turi būti atskirtas nuo kitų potinklių. Belaidė prieiga turi būti apsaugota patikimais šifravimo mechanizmais.</t>
-  </si>
-  <si>
-    <t>Ar guest WLAN atskiras?</t>
   </si>
   <si>
     <t>Informacinės sistemos tinklas turi būti atskirtas nuo kitų duomenų valdytojo tinklų.</t>
@@ -1082,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -1111,217 +1111,217 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,19 +1332,19 @@
         <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,19 +1355,19 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>63</v>
@@ -1390,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -1413,7 +1413,7 @@
         <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>69</v>
@@ -1436,7 +1436,7 @@
         <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>73</v>
@@ -1459,7 +1459,7 @@
         <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1470,10 +1470,10 @@
         <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>76</v>
@@ -1482,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,10 +1493,10 @@
         <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>79</v>
@@ -1505,7 +1505,7 @@
         <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1516,10 +1516,10 @@
         <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>82</v>
@@ -1528,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
@@ -1551,7 +1551,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,10 +1562,10 @@
         <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -1574,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,10 +1585,10 @@
         <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>92</v>
@@ -1597,7 +1597,7 @@
         <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>95</v>
@@ -1620,7 +1620,7 @@
         <v>96</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>98</v>
@@ -1643,7 +1643,7 @@
         <v>99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,19 +1654,19 @@
         <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1677,10 +1677,10 @@
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>103</v>
@@ -1689,7 +1689,7 @@
         <v>104</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>106</v>
@@ -1712,7 +1712,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,10 +1723,10 @@
         <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>106</v>
@@ -1735,7 +1735,7 @@
         <v>107</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,19 +1746,19 @@
         <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -1781,7 +1781,7 @@
         <v>112</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,19 +1792,19 @@
         <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,10 +1815,10 @@
         <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>116</v>
@@ -1827,7 +1827,7 @@
         <v>117</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,10 +1838,10 @@
         <v>118</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>119</v>
@@ -1850,7 +1850,7 @@
         <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>122</v>
@@ -1873,7 +1873,7 @@
         <v>123</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>122</v>
@@ -1896,7 +1896,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,19 +1907,19 @@
         <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,10 +1930,10 @@
         <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>128</v>
@@ -1942,7 +1942,7 @@
         <v>129</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,19 +1953,19 @@
         <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
         <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>134</v>
@@ -1988,7 +1988,7 @@
         <v>135</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,19 +1999,19 @@
         <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2022,10 +2022,10 @@
         <v>138</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>139</v>
@@ -2034,7 +2034,7 @@
         <v>137</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>139</v>
@@ -2057,7 +2057,7 @@
         <v>137</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,19 +2068,19 @@
         <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,19 +2091,19 @@
         <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2114,10 +2114,10 @@
         <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>139</v>
@@ -2126,7 +2126,7 @@
         <v>137</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,19 +2137,19 @@
         <v>145</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2160,19 +2160,19 @@
         <v>147</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,10 +2183,10 @@
         <v>149</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>150</v>
@@ -2195,7 +2195,7 @@
         <v>151</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>154</v>
@@ -2218,7 +2218,7 @@
         <v>155</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2229,19 +2229,19 @@
         <v>156</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,10 +2262,10 @@
         <v>158</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>159</v>
@@ -2274,7 +2274,7 @@
         <v>160</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2285,10 +2285,10 @@
         <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>154</v>
@@ -2297,7 +2297,7 @@
         <v>151</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2308,10 +2308,10 @@
         <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>163</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>165</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>166</v>
@@ -2343,7 +2343,7 @@
         <v>167</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,19 +2354,19 @@
         <v>168</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>169</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,10 +2377,10 @@
         <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>171</v>
@@ -2389,7 +2389,7 @@
         <v>172</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,10 +2400,10 @@
         <v>174</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>175</v>
@@ -2412,7 +2412,7 @@
         <v>176</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2423,10 +2423,10 @@
         <v>177</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>178</v>
@@ -2435,7 +2435,7 @@
         <v>172</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,10 +2446,10 @@
         <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>181</v>
@@ -2458,7 +2458,7 @@
         <v>182</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,19 +2469,19 @@
         <v>184</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2492,19 +2492,19 @@
         <v>187</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2515,10 +2515,10 @@
         <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>190</v>
@@ -2527,7 +2527,7 @@
         <v>191</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2538,10 +2538,10 @@
         <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>194</v>
@@ -2550,7 +2550,7 @@
         <v>195</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2561,10 +2561,10 @@
         <v>196</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>197</v>
@@ -2573,7 +2573,7 @@
         <v>198</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2584,19 +2584,19 @@
         <v>199</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2607,10 +2607,10 @@
         <v>200</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>201</v>
@@ -2619,7 +2619,7 @@
         <v>126</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,10 +2630,10 @@
         <v>202</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>190</v>
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,19 +2653,19 @@
         <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>205</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2676,10 +2676,10 @@
         <v>207</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>208</v>
@@ -2688,7 +2688,7 @@
         <v>209</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2699,10 +2699,10 @@
         <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>212</v>
@@ -2711,7 +2711,7 @@
         <v>213</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/IT_Klausimynas_UAB_Pristatymas.xlsx
+++ b/Backend/IT_Klausimynas_UAB_Pristatymas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Įmonė:</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Komentarasascaqfcascascascas</t>
   </si>
   <si>
     <t>Rekomenduojama naudoti kortelių sistemą patekimui į patalpas, kuri fiksuotų konkrečiai kas kada ir kur naudojosi fizinėmis patalpomis. Tai veiktų ir preventyviai, ir palengvintu tyrimą įvykus incidentui.</t>
@@ -1082,16 +1085,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,1550 +1102,1550 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,68 +2653,68 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
